--- a/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
@@ -1679,7 +1679,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>2.49708</v>
@@ -1802,7 +1802,7 @@
         <v>0.053</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
         <v>2.49708</v>
@@ -1843,7 +1843,7 @@
         <v>0.015</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>2.49708</v>
@@ -2130,7 +2130,7 @@
         <v>0.299</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>2.49708</v>
@@ -2171,7 +2171,7 @@
         <v>0.366</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
         <v>2.49708</v>
